--- a/output/5Y_P31_KFSDIV.xlsx
+++ b/output/5Y_P31_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -1249,7 +1252,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-19</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>12.2659</v>
@@ -1293,7 +1296,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-18</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.4103</v>
@@ -1343,7 +1346,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-17</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.3976</v>
@@ -1393,7 +1396,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-16</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.9013</v>
@@ -1443,7 +1446,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-15</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.3527</v>
@@ -1493,7 +1496,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-14</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.8804</v>
@@ -1543,7 +1546,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-13</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>14.6268</v>
@@ -1593,7 +1596,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-12</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>15.3636</v>
@@ -1643,7 +1646,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-11</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.8711</v>
@@ -1693,7 +1696,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>14.1252</v>
@@ -1743,7 +1746,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-9</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.1934</v>
@@ -1793,7 +1796,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-8</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.1176</v>
@@ -1843,7 +1846,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-7</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>15.3311</v>
@@ -1893,7 +1896,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-6</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>15.3637</v>
@@ -1943,7 +1946,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-5</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>14.6447</v>
@@ -1993,7 +1996,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-4</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>15.486</v>
@@ -2043,7 +2046,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-3</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>16.1958</v>
@@ -2093,7 +2096,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-2</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>16.4264</v>
@@ -2143,7 +2146,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>17.107</v>
@@ -2193,7 +2196,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>16.8894</v>
@@ -2243,7 +2246,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>16.4004</v>
@@ -2293,7 +2296,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>15.3877</v>
@@ -2343,7 +2346,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>14.6367</v>
@@ -2393,7 +2396,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.0061</v>
@@ -2443,7 +2446,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.835</v>
@@ -2493,7 +2496,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>14.4216</v>
@@ -2543,7 +2546,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.2404</v>
@@ -2593,7 +2596,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>12.382</v>
@@ -2643,7 +2646,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>11.9583</v>
@@ -2693,7 +2696,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>12.2036</v>
@@ -2743,7 +2746,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>12.9136</v>
@@ -2793,7 +2796,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>13.4338</v>
@@ -2843,7 +2846,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>12.9657</v>
@@ -2893,7 +2896,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>13.3568</v>
@@ -2943,7 +2946,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>13.2487</v>
@@ -2993,7 +2996,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>13.3991</v>
@@ -3043,7 +3046,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>13.5985</v>
@@ -3093,7 +3096,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>13.6955</v>
@@ -3143,7 +3146,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>13.3398</v>
@@ -3193,7 +3196,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>12.8469</v>
@@ -3243,7 +3246,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>13.129</v>
@@ -3293,7 +3296,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>12.716</v>
@@ -3343,7 +3346,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>12.4613</v>
@@ -3393,7 +3396,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>12.6545</v>
@@ -3443,7 +3446,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>12.2345</v>
@@ -3493,7 +3496,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>12.1636</v>
@@ -3543,7 +3546,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>11.8145</v>
@@ -3593,7 +3596,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>11.2352</v>
@@ -3643,7 +3646,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>10.8241</v>
@@ -3693,7 +3696,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>11.2543</v>
@@ -3743,7 +3746,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>10.5675</v>
@@ -3793,7 +3796,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>9.967000000000001</v>
@@ -3843,7 +3846,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>10.0064</v>
@@ -3893,7 +3896,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>10.0129</v>
@@ -3943,7 +3946,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>10.4583</v>
@@ -3993,7 +3996,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>10.3341</v>
@@ -4043,7 +4046,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>9.884600000000001</v>
@@ -4093,7 +4096,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>9.967499999999999</v>
@@ -4143,7 +4146,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>10.4908</v>
@@ -4193,7 +4196,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>10.6308</v>
@@ -4243,7 +4246,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>10.3176</v>
@@ -4378,7 +4381,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-19</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>12.2659</v>
@@ -4425,7 +4428,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-18</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.4103</v>
@@ -4478,7 +4481,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-17</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.3976</v>
@@ -4531,7 +4534,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-16</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.9013</v>
@@ -4584,7 +4587,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-15</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.3527</v>
@@ -4637,7 +4640,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-14</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.8804</v>
@@ -4690,7 +4693,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-13</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>14.6268</v>
@@ -4743,7 +4746,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-12</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>15.3636</v>
@@ -4796,7 +4799,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-11</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.8711</v>
@@ -4849,7 +4852,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>14.1252</v>
@@ -4902,7 +4905,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-9</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.1934</v>
@@ -4955,7 +4958,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-8</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.1176</v>
@@ -5008,7 +5011,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-7</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>15.3311</v>
@@ -5061,7 +5064,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-6</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>15.3637</v>
@@ -5091,10 +5094,10 @@
         <v>153604.5788</v>
       </c>
       <c r="K15" s="1">
-        <v>114928.6528</v>
+        <v>114929.9134</v>
       </c>
       <c r="L15" s="1">
-        <v>13.5266</v>
+        <v>13.5267</v>
       </c>
       <c r="M15" s="1">
         <v>0</v>
@@ -5114,7 +5117,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-5</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>14.6447</v>
@@ -5144,10 +5147,10 @@
         <v>157013.4378</v>
       </c>
       <c r="K16" s="1">
-        <v>124690.6652</v>
+        <v>124691.9258</v>
       </c>
       <c r="L16" s="1">
-        <v>13.6563</v>
+        <v>13.6564</v>
       </c>
       <c r="M16" s="1">
         <v>1</v>
@@ -5167,7 +5170,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-4</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>15.486</v>
@@ -5197,10 +5200,10 @@
         <v>183781.5807</v>
       </c>
       <c r="K17" s="1">
-        <v>141309.1729</v>
+        <v>141310.4336</v>
       </c>
       <c r="L17" s="1">
-        <v>13.7686</v>
+        <v>13.7687</v>
       </c>
       <c r="M17" s="1">
         <v>0</v>
@@ -5220,7 +5223,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-3</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>16.1958</v>
@@ -5250,10 +5253,10 @@
         <v>201109.8402</v>
       </c>
       <c r="K18" s="1">
-        <v>142697.783</v>
+        <v>142699.0436</v>
       </c>
       <c r="L18" s="1">
-        <v>13.7837</v>
+        <v>13.7838</v>
       </c>
       <c r="M18" s="1">
         <v>0</v>
@@ -5273,7 +5276,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-2</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>16.4264</v>
@@ -5303,10 +5306,10 @@
         <v>213520.3003</v>
       </c>
       <c r="K19" s="1">
-        <v>145374.6641</v>
+        <v>145375.9247</v>
       </c>
       <c r="L19" s="1">
-        <v>13.8221</v>
+        <v>13.8222</v>
       </c>
       <c r="M19" s="1">
         <v>0.75</v>
@@ -5326,7 +5329,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>17.107</v>
@@ -5356,10 +5359,10 @@
         <v>238046.8439</v>
       </c>
       <c r="K20" s="1">
-        <v>152983.8885</v>
+        <v>152985.1492</v>
       </c>
       <c r="L20" s="1">
-        <v>13.9331</v>
+        <v>13.9332</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -5379,7 +5382,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>16.8894</v>
@@ -5409,10 +5412,10 @@
         <v>245619.4648</v>
       </c>
       <c r="K21" s="1">
-        <v>155536.545</v>
+        <v>155537.8057</v>
       </c>
       <c r="L21" s="1">
-        <v>13.976</v>
+        <v>13.9761</v>
       </c>
       <c r="M21" s="1">
         <v>1</v>
@@ -5432,7 +5435,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>16.4004</v>
@@ -5462,10 +5465,10 @@
         <v>259795.2365</v>
       </c>
       <c r="K22" s="1">
-        <v>168003.5228</v>
+        <v>168004.7834</v>
       </c>
       <c r="L22" s="1">
-        <v>14.159</v>
+        <v>14.1591</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -5485,7 +5488,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>15.3877</v>
@@ -5515,10 +5518,10 @@
         <v>256764.3446</v>
       </c>
       <c r="K23" s="1">
-        <v>183857.2662</v>
+        <v>183858.5268</v>
       </c>
       <c r="L23" s="1">
-        <v>14.33</v>
+        <v>14.3301</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -5538,7 +5541,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>14.6367</v>
@@ -5568,10 +5571,10 @@
         <v>255935.0237</v>
       </c>
       <c r="K24" s="1">
-        <v>206916.9031</v>
+        <v>206918.1637</v>
       </c>
       <c r="L24" s="1">
-        <v>14.4436</v>
+        <v>14.4437</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -5591,7 +5594,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.0061</v>
@@ -5621,10 +5624,10 @@
         <v>240229.2718</v>
       </c>
       <c r="K25" s="1">
-        <v>227737.2868</v>
+        <v>227738.5474</v>
       </c>
       <c r="L25" s="1">
-        <v>14.4637</v>
+        <v>14.4638</v>
       </c>
       <c r="M25" s="1">
         <v>0.5</v>
@@ -5644,7 +5647,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.835</v>
@@ -5674,10 +5677,10 @@
         <v>272466.5359</v>
       </c>
       <c r="K26" s="1">
-        <v>263502.8311</v>
+        <v>263504.0917</v>
       </c>
       <c r="L26" s="1">
-        <v>14.2512</v>
+        <v>14.2513</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -5697,7 +5700,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>14.4216</v>
@@ -5727,10 +5730,10 @@
         <v>293067.8121</v>
       </c>
       <c r="K27" s="1">
-        <v>258186.789</v>
+        <v>258209.2943</v>
       </c>
       <c r="L27" s="1">
-        <v>14.2594</v>
+        <v>14.2607</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -5750,7 +5753,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.2404</v>
@@ -5780,10 +5783,10 @@
         <v>281771.4695</v>
       </c>
       <c r="K28" s="1">
-        <v>257583.1024</v>
+        <v>257608.0182</v>
       </c>
       <c r="L28" s="1">
-        <v>14.259</v>
+        <v>14.2604</v>
       </c>
       <c r="M28" s="1">
         <v>0.4</v>
@@ -5803,7 +5806,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>12.382</v>
@@ -5833,10 +5836,10 @@
         <v>280644.2179</v>
       </c>
       <c r="K29" s="1">
-        <v>289004.9724</v>
+        <v>289029.8882</v>
       </c>
       <c r="L29" s="1">
-        <v>14.144</v>
+        <v>14.1452</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -5856,7 +5859,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>11.9583</v>
@@ -5886,10 +5889,10 @@
         <v>280953.6531</v>
       </c>
       <c r="K30" s="1">
-        <v>316620.3491</v>
+        <v>316645.2649</v>
       </c>
       <c r="L30" s="1">
-        <v>13.9734</v>
+        <v>13.9745</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -5909,7 +5912,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>12.2036</v>
@@ -5939,10 +5942,10 @@
         <v>296823.5846</v>
       </c>
       <c r="K31" s="1">
-        <v>336279.1</v>
+        <v>336304.0158</v>
       </c>
       <c r="L31" s="1">
-        <v>13.8389</v>
+        <v>13.84</v>
       </c>
       <c r="M31" s="1">
         <v>0.4</v>
@@ -5962,7 +5965,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>12.9136</v>
@@ -5992,10 +5995,10 @@
         <v>333009.4876</v>
       </c>
       <c r="K32" s="1">
-        <v>340346.8483</v>
+        <v>340371.7641</v>
       </c>
       <c r="L32" s="1">
-        <v>13.8172</v>
+        <v>13.8182</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -6015,7 +6018,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>13.4338</v>
@@ -6045,10 +6048,10 @@
         <v>355495.7924</v>
       </c>
       <c r="K33" s="1">
-        <v>332862.5965</v>
+        <v>332917.4157</v>
       </c>
       <c r="L33" s="1">
-        <v>13.8383</v>
+        <v>13.8406</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -6068,7 +6071,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>12.9657</v>
@@ -6098,10 +6101,10 @@
         <v>354346.9064</v>
       </c>
       <c r="K34" s="1">
-        <v>330366.3144</v>
+        <v>330431.1109</v>
       </c>
       <c r="L34" s="1">
-        <v>13.8412</v>
+        <v>13.8439</v>
       </c>
       <c r="M34" s="1">
         <v>0.3</v>
@@ -6121,7 +6124,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>13.3568</v>
@@ -6151,10 +6154,10 @@
         <v>380660.2322</v>
       </c>
       <c r="K35" s="1">
-        <v>351600.0261</v>
+        <v>351664.8225</v>
       </c>
       <c r="L35" s="1">
-        <v>13.7868</v>
+        <v>13.7893</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -6174,7 +6177,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>13.2487</v>
@@ -6204,10 +6207,10 @@
         <v>387907.9291</v>
       </c>
       <c r="K36" s="1">
-        <v>351646.5032</v>
+        <v>351711.2996</v>
       </c>
       <c r="L36" s="1">
-        <v>13.7867</v>
+        <v>13.7893</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -6227,7 +6230,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>13.3991</v>
@@ -6257,10 +6260,10 @@
         <v>401830.0553</v>
       </c>
       <c r="K37" s="1">
-        <v>364449.7363</v>
+        <v>364514.5327</v>
       </c>
       <c r="L37" s="1">
-        <v>13.7681</v>
+        <v>13.7705</v>
       </c>
       <c r="M37" s="1">
         <v>0.4</v>
@@ -6280,7 +6283,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>13.5985</v>
@@ -6310,10 +6313,10 @@
         <v>426692.6693</v>
       </c>
       <c r="K38" s="1">
-        <v>370500.6513</v>
+        <v>370565.4477</v>
       </c>
       <c r="L38" s="1">
-        <v>13.7623</v>
+        <v>13.7648</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -6333,7 +6336,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>13.6955</v>
@@ -6363,10 +6366,10 @@
         <v>439313.1581</v>
       </c>
       <c r="K39" s="1">
-        <v>375161.918</v>
+        <v>375226.7145</v>
       </c>
       <c r="L39" s="1">
-        <v>13.7606</v>
+        <v>13.763</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -6386,7 +6389,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>13.3398</v>
@@ -6416,10 +6419,10 @@
         <v>439413.9492</v>
       </c>
       <c r="K40" s="1">
-        <v>382552.3316</v>
+        <v>382617.1281</v>
       </c>
       <c r="L40" s="1">
-        <v>13.7599</v>
+        <v>13.7622</v>
       </c>
       <c r="M40" s="1">
         <v>0.3</v>
@@ -6439,7 +6442,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>12.8469</v>
@@ -6469,10 +6472,10 @@
         <v>442430.8378</v>
       </c>
       <c r="K41" s="1">
-        <v>402501.7273</v>
+        <v>402566.5238</v>
       </c>
       <c r="L41" s="1">
-        <v>13.7399</v>
+        <v>13.7421</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -6492,7 +6495,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>13.129</v>
@@ -6522,10 +6525,10 @@
         <v>461115.308</v>
       </c>
       <c r="K42" s="1">
-        <v>427009.5285</v>
+        <v>427074.3249</v>
       </c>
       <c r="L42" s="1">
-        <v>13.6869</v>
+        <v>13.689</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -6545,7 +6548,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>12.716</v>
@@ -6575,10 +6578,10 @@
         <v>458215.2912</v>
       </c>
       <c r="K43" s="1">
-        <v>428232.0875</v>
+        <v>428296.8839</v>
       </c>
       <c r="L43" s="1">
-        <v>13.6854</v>
+        <v>13.6874</v>
       </c>
       <c r="M43" s="1">
         <v>0.3</v>
@@ -6598,7 +6601,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>12.4613</v>
@@ -6628,10 +6631,10 @@
         <v>468159.2618</v>
       </c>
       <c r="K44" s="1">
-        <v>451219.0447</v>
+        <v>451283.8412</v>
       </c>
       <c r="L44" s="1">
-        <v>13.6339</v>
+        <v>13.6359</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -6651,7 +6654,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>12.6545</v>
@@ -6681,10 +6684,10 @@
         <v>484751.6197</v>
       </c>
       <c r="K45" s="1">
-        <v>469705.7657</v>
+        <v>469770.5622</v>
       </c>
       <c r="L45" s="1">
-        <v>13.5848</v>
+        <v>13.5866</v>
       </c>
       <c r="M45" s="1">
         <v>0</v>
@@ -6704,7 +6707,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>12.2345</v>
@@ -6734,10 +6737,10 @@
         <v>480133.3523</v>
       </c>
       <c r="K46" s="1">
-        <v>473052.9113</v>
+        <v>473117.7077</v>
       </c>
       <c r="L46" s="1">
-        <v>13.5779</v>
+        <v>13.5798</v>
       </c>
       <c r="M46" s="1">
         <v>0.3</v>
@@ -6757,7 +6760,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>12.1636</v>
@@ -6787,10 +6790,10 @@
         <v>496835.7309</v>
       </c>
       <c r="K47" s="1">
-        <v>497756.5372</v>
+        <v>497821.3336</v>
       </c>
       <c r="L47" s="1">
-        <v>13.5058</v>
+        <v>13.5076</v>
       </c>
       <c r="M47" s="1">
         <v>0</v>
@@ -6810,7 +6813,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>11.8145</v>
@@ -6840,10 +6843,10 @@
         <v>493583.0808</v>
       </c>
       <c r="K48" s="1">
-        <v>510412.7592</v>
+        <v>510477.5556</v>
       </c>
       <c r="L48" s="1">
-        <v>13.4697</v>
+        <v>13.4714</v>
       </c>
       <c r="M48" s="1">
         <v>0</v>
@@ -6863,7 +6866,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>11.2352</v>
@@ -6893,10 +6896,10 @@
         <v>480442.23</v>
       </c>
       <c r="K49" s="1">
-        <v>533707.9151</v>
+        <v>533772.7115</v>
       </c>
       <c r="L49" s="1">
-        <v>13.3891</v>
+        <v>13.3908</v>
       </c>
       <c r="M49" s="1">
         <v>0.3</v>
@@ -6916,7 +6919,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>10.8241</v>
@@ -6946,10 +6949,10 @@
         <v>483507.7673</v>
       </c>
       <c r="K50" s="1">
-        <v>566888.3201</v>
+        <v>566953.1165</v>
       </c>
       <c r="L50" s="1">
-        <v>13.2424</v>
+        <v>13.2439</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -6969,7 +6972,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>11.2543</v>
@@ -6999,10 +7002,10 @@
         <v>512874.7327</v>
       </c>
       <c r="K51" s="1">
-        <v>594563.4324</v>
+        <v>594628.2288</v>
       </c>
       <c r="L51" s="1">
-        <v>13.1076</v>
+        <v>13.109</v>
       </c>
       <c r="M51" s="1">
         <v>0</v>
@@ -7022,7 +7025,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>10.5675</v>
@@ -7052,10 +7055,10 @@
         <v>492363.1495</v>
       </c>
       <c r="K52" s="1">
-        <v>585047.6671</v>
+        <v>585150.5201</v>
       </c>
       <c r="L52" s="1">
-        <v>13.1423</v>
+        <v>13.1446</v>
       </c>
       <c r="M52" s="1">
         <v>0.3</v>
@@ -7075,7 +7078,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>9.967000000000001</v>
@@ -7105,10 +7108,10 @@
         <v>485711.9032</v>
       </c>
       <c r="K53" s="1">
-        <v>617922.3997</v>
+        <v>618025.2528</v>
       </c>
       <c r="L53" s="1">
-        <v>12.9758</v>
+        <v>12.978</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -7128,7 +7131,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>10.0064</v>
@@ -7158,10 +7161,10 @@
         <v>497582.092</v>
       </c>
       <c r="K54" s="1">
-        <v>639941.8445</v>
+        <v>640044.6976</v>
       </c>
       <c r="L54" s="1">
-        <v>12.8435</v>
+        <v>12.8456</v>
       </c>
       <c r="M54" s="1">
         <v>0</v>
@@ -7181,7 +7184,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>10.0129</v>
@@ -7211,10 +7214,10 @@
         <v>507872.4496</v>
       </c>
       <c r="K55" s="1">
-        <v>649941.8445</v>
+        <v>650044.6976</v>
       </c>
       <c r="L55" s="1">
-        <v>12.7883</v>
+        <v>12.7903</v>
       </c>
       <c r="M55" s="1">
         <v>0.3</v>
@@ -7234,7 +7237,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>10.4583</v>
@@ -7264,10 +7267,10 @@
         <v>554588.7885</v>
       </c>
       <c r="K56" s="1">
-        <v>659941.8445</v>
+        <v>660044.6976</v>
       </c>
       <c r="L56" s="1">
-        <v>12.7353</v>
+        <v>12.7372</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -7287,7 +7290,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>10.3341</v>
@@ -7317,10 +7320,10 @@
         <v>558017.9285</v>
       </c>
       <c r="K57" s="1">
-        <v>669112.0207</v>
+        <v>669214.8737999999</v>
       </c>
       <c r="L57" s="1">
-        <v>12.6978</v>
+        <v>12.6998</v>
       </c>
       <c r="M57" s="1">
         <v>0</v>
@@ -7340,7 +7343,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>9.884600000000001</v>
@@ -7370,10 +7373,10 @@
         <v>543593.3434</v>
       </c>
       <c r="K58" s="1">
-        <v>685712.5865</v>
+        <v>685815.4396</v>
       </c>
       <c r="L58" s="1">
-        <v>12.6286</v>
+        <v>12.6305</v>
       </c>
       <c r="M58" s="1">
         <v>0.5</v>
@@ -7393,7 +7396,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>9.967499999999999</v>
@@ -7423,10 +7426,10 @@
         <v>582601.7724</v>
       </c>
       <c r="K59" s="1">
-        <v>703664.1435</v>
+        <v>703766.9966</v>
       </c>
       <c r="L59" s="1">
-        <v>12.5406</v>
+        <v>12.5425</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -7446,7 +7449,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>10.4908</v>
@@ -7476,10 +7479,10 @@
         <v>622961.345</v>
       </c>
       <c r="K60" s="1">
-        <v>725584.1727</v>
+        <v>725687.0257999999</v>
       </c>
       <c r="L60" s="1">
-        <v>12.4445</v>
+        <v>12.4463</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -7499,7 +7502,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>10.6308</v>
@@ -7529,10 +7532,10 @@
         <v>640833.7972</v>
       </c>
       <c r="K61" s="1">
-        <v>705055.0052</v>
+        <v>705239.8827</v>
       </c>
       <c r="L61" s="1">
-        <v>12.5115</v>
+        <v>12.5148</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -7552,7 +7555,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>10.3176</v>
@@ -7582,10 +7585,10 @@
         <v>633152.4142</v>
       </c>
       <c r="K62" s="1">
-        <v>707191.0956</v>
+        <v>707375.9732</v>
       </c>
       <c r="L62" s="1">
-        <v>12.5049</v>
+        <v>12.5082</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -7690,7 +7693,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-19</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>12.2659</v>
@@ -7737,7 +7740,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-18</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.4103</v>
@@ -7790,7 +7793,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-17</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.3976</v>
@@ -7843,7 +7846,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-16</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.9013</v>
@@ -7896,7 +7899,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-15</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.3527</v>
@@ -7949,7 +7952,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-14</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.8804</v>
@@ -8002,7 +8005,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-13</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>14.6268</v>
@@ -8055,7 +8058,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-12</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>15.3636</v>
@@ -8108,7 +8111,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-11</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.8711</v>
@@ -8161,7 +8164,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>14.1252</v>
@@ -8214,7 +8217,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-9</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.1934</v>
@@ -8267,7 +8270,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-8</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.1176</v>
@@ -8320,7 +8323,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-7</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>15.3311</v>
@@ -8373,7 +8376,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-6</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>15.3637</v>
@@ -8426,7 +8429,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-5</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>14.6447</v>
@@ -8479,7 +8482,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-4</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>15.486</v>
@@ -8532,7 +8535,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-3</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>16.1958</v>
@@ -8585,7 +8588,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-2</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>16.4264</v>
@@ -8638,7 +8641,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>17.107</v>
@@ -8691,7 +8694,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>16.8894</v>
@@ -8744,7 +8747,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>16.4004</v>
@@ -8797,7 +8800,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>15.3877</v>
@@ -8850,7 +8853,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>14.6367</v>
@@ -8903,7 +8906,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.0061</v>
@@ -8956,7 +8959,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.835</v>
@@ -9009,7 +9012,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>14.4216</v>
@@ -9062,7 +9065,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.2404</v>
@@ -9115,7 +9118,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>12.382</v>
@@ -9168,7 +9171,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>11.9583</v>
@@ -9221,7 +9224,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>12.2036</v>
@@ -9274,7 +9277,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>12.9136</v>
@@ -9327,7 +9330,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>13.4338</v>
@@ -9380,7 +9383,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>12.9657</v>
@@ -9410,10 +9413,10 @@
         <v>352993.9978</v>
       </c>
       <c r="K34" s="1">
-        <v>358935.0233</v>
+        <v>358942.2368</v>
       </c>
       <c r="L34" s="1">
-        <v>13.9046</v>
+        <v>13.9049</v>
       </c>
       <c r="M34" s="1">
         <v>0.3</v>
@@ -9433,7 +9436,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>13.3568</v>
@@ -9463,10 +9466,10 @@
         <v>380661.1128</v>
       </c>
       <c r="K35" s="1">
-        <v>382818.6036</v>
+        <v>382825.8171</v>
       </c>
       <c r="L35" s="1">
-        <v>13.844</v>
+        <v>13.8442</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -9486,7 +9489,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>13.2487</v>
@@ -9516,10 +9519,10 @@
         <v>387665.3539</v>
       </c>
       <c r="K36" s="1">
-        <v>383818.9497</v>
+        <v>383826.1632</v>
       </c>
       <c r="L36" s="1">
-        <v>13.8427</v>
+        <v>13.843</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -9539,7 +9542,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>13.3991</v>
@@ -9569,10 +9572,10 @@
         <v>401936.179</v>
       </c>
       <c r="K37" s="1">
-        <v>398718.2225</v>
+        <v>398725.436</v>
       </c>
       <c r="L37" s="1">
-        <v>13.8206</v>
+        <v>13.8209</v>
       </c>
       <c r="M37" s="1">
         <v>0.4</v>
@@ -9592,7 +9595,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>13.5985</v>
@@ -9622,10 +9625,10 @@
         <v>428145.4322</v>
       </c>
       <c r="K38" s="1">
-        <v>406325.5529</v>
+        <v>406332.7664</v>
       </c>
       <c r="L38" s="1">
-        <v>13.813</v>
+        <v>13.8133</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -9645,7 +9648,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>13.6955</v>
@@ -9675,10 +9678,10 @@
         <v>441012.0101</v>
       </c>
       <c r="K39" s="1">
-        <v>412463.056</v>
+        <v>412470.2695</v>
       </c>
       <c r="L39" s="1">
-        <v>13.8102</v>
+        <v>13.8104</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -9698,7 +9701,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>13.3398</v>
@@ -9728,10 +9731,10 @@
         <v>440135.482</v>
       </c>
       <c r="K40" s="1">
-        <v>421635.2411</v>
+        <v>421642.4546</v>
       </c>
       <c r="L40" s="1">
-        <v>13.8083</v>
+        <v>13.8085</v>
       </c>
       <c r="M40" s="1">
         <v>0.3</v>
@@ -9751,7 +9754,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>12.8469</v>
@@ -9781,10 +9784,10 @@
         <v>442420.7121</v>
       </c>
       <c r="K41" s="1">
-        <v>444653.8751</v>
+        <v>444661.0886</v>
       </c>
       <c r="L41" s="1">
-        <v>13.7847</v>
+        <v>13.7849</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -9804,7 +9807,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>13.129</v>
@@ -9834,10 +9837,10 @@
         <v>462003.841</v>
       </c>
       <c r="K42" s="1">
-        <v>472780.6314</v>
+        <v>472787.8449</v>
       </c>
       <c r="L42" s="1">
-        <v>13.7268</v>
+        <v>13.7271</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -9857,7 +9860,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>12.716</v>
@@ -9887,10 +9890,10 @@
         <v>457721.1619</v>
       </c>
       <c r="K43" s="1">
-        <v>475303.2216</v>
+        <v>475310.4351</v>
       </c>
       <c r="L43" s="1">
-        <v>13.7237</v>
+        <v>13.7239</v>
       </c>
       <c r="M43" s="1">
         <v>0.3</v>
@@ -9910,7 +9913,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>12.4613</v>
@@ -9940,10 +9943,10 @@
         <v>467630.279</v>
       </c>
       <c r="K44" s="1">
-        <v>501951.2506</v>
+        <v>501958.4641</v>
       </c>
       <c r="L44" s="1">
-        <v>13.6677</v>
+        <v>13.6679</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -9963,7 +9966,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>12.6545</v>
@@ -9993,10 +9996,10 @@
         <v>484950.1022</v>
       </c>
       <c r="K45" s="1">
-        <v>522851.6895</v>
+        <v>522858.9031</v>
       </c>
       <c r="L45" s="1">
-        <v>13.6162</v>
+        <v>13.6164</v>
       </c>
       <c r="M45" s="1">
         <v>0</v>
@@ -10016,7 +10019,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>12.2345</v>
@@ -10046,10 +10049,10 @@
         <v>478635.9912</v>
       </c>
       <c r="K46" s="1">
-        <v>528712.7254</v>
+        <v>528719.9389</v>
       </c>
       <c r="L46" s="1">
-        <v>13.6051</v>
+        <v>13.6053</v>
       </c>
       <c r="M46" s="1">
         <v>0.3</v>
@@ -10069,7 +10072,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>12.1636</v>
@@ -10099,10 +10102,10 @@
         <v>496243.0009</v>
       </c>
       <c r="K47" s="1">
-        <v>542851.6895</v>
+        <v>542858.9031</v>
       </c>
       <c r="L47" s="1">
-        <v>13.5663</v>
+        <v>13.5665</v>
       </c>
       <c r="M47" s="1">
         <v>0</v>
@@ -10122,7 +10125,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>11.8145</v>
@@ -10152,10 +10155,10 @@
         <v>491634.2068</v>
       </c>
       <c r="K48" s="1">
-        <v>563344.2528</v>
+        <v>563351.4663</v>
       </c>
       <c r="L48" s="1">
-        <v>13.5107</v>
+        <v>13.5109</v>
       </c>
       <c r="M48" s="1">
         <v>0</v>
@@ -10175,7 +10178,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>11.2352</v>
@@ -10205,10 +10208,10 @@
         <v>476997.1642</v>
       </c>
       <c r="K49" s="1">
-        <v>573344.2528</v>
+        <v>573351.4663</v>
       </c>
       <c r="L49" s="1">
-        <v>13.4775</v>
+        <v>13.4777</v>
       </c>
       <c r="M49" s="1">
         <v>0.3</v>
@@ -10228,7 +10231,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>10.8241</v>
@@ -10258,10 +10261,10 @@
         <v>480624.2564</v>
       </c>
       <c r="K50" s="1">
-        <v>583344.2528</v>
+        <v>583351.4663</v>
       </c>
       <c r="L50" s="1">
-        <v>13.4321</v>
+        <v>13.4323</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -10281,7 +10284,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>11.2543</v>
@@ -10311,10 +10314,10 @@
         <v>510037.3846</v>
       </c>
       <c r="K51" s="1">
-        <v>604830.2672999999</v>
+        <v>604837.4808</v>
       </c>
       <c r="L51" s="1">
-        <v>13.3193</v>
+        <v>13.3194</v>
       </c>
       <c r="M51" s="1">
         <v>0</v>
@@ -10334,7 +10337,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>10.5675</v>
@@ -10364,10 +10367,10 @@
         <v>488265.504</v>
       </c>
       <c r="K52" s="1">
-        <v>614830.2672999999</v>
+        <v>614837.4808</v>
       </c>
       <c r="L52" s="1">
-        <v>13.2802</v>
+        <v>13.2803</v>
       </c>
       <c r="M52" s="1">
         <v>0.3</v>
@@ -10387,7 +10390,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>9.967000000000001</v>
@@ -10417,10 +10420,10 @@
         <v>482414.0097</v>
       </c>
       <c r="K53" s="1">
-        <v>624830.2672999999</v>
+        <v>624837.4808</v>
       </c>
       <c r="L53" s="1">
-        <v>13.2264</v>
+        <v>13.2265</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -10440,7 +10443,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>10.0064</v>
@@ -10470,10 +10473,10 @@
         <v>494269.2406</v>
       </c>
       <c r="K54" s="1">
-        <v>647330.4271</v>
+        <v>647337.6406</v>
       </c>
       <c r="L54" s="1">
-        <v>13.0789</v>
+        <v>13.0791</v>
       </c>
       <c r="M54" s="1">
         <v>0</v>
@@ -10493,7 +10496,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>10.0129</v>
@@ -10523,10 +10526,10 @@
         <v>504557.442</v>
       </c>
       <c r="K55" s="1">
-        <v>657330.4271</v>
+        <v>657337.6406</v>
       </c>
       <c r="L55" s="1">
-        <v>13.0186</v>
+        <v>13.0188</v>
       </c>
       <c r="M55" s="1">
         <v>0.3</v>
@@ -10546,7 +10549,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>10.4583</v>
@@ -10576,10 +10579,10 @@
         <v>551036.7552</v>
       </c>
       <c r="K56" s="1">
-        <v>667330.4271</v>
+        <v>667337.6406</v>
       </c>
       <c r="L56" s="1">
-        <v>12.9608</v>
+        <v>12.961</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -10599,7 +10602,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>10.3341</v>
@@ -10629,10 +10632,10 @@
         <v>554278.0708</v>
       </c>
       <c r="K57" s="1">
-        <v>690963.1573</v>
+        <v>690970.3708</v>
       </c>
       <c r="L57" s="1">
-        <v>12.8567</v>
+        <v>12.8568</v>
       </c>
       <c r="M57" s="1">
         <v>0</v>
@@ -10652,7 +10655,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>9.884600000000001</v>
@@ -10682,10 +10685,10 @@
         <v>539695.5324</v>
       </c>
       <c r="K58" s="1">
-        <v>700963.1573</v>
+        <v>700970.3708</v>
       </c>
       <c r="L58" s="1">
-        <v>12.8125</v>
+        <v>12.8127</v>
       </c>
       <c r="M58" s="1">
         <v>0.5</v>
@@ -10705,7 +10708,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>9.967499999999999</v>
@@ -10735,10 +10738,10 @@
         <v>578888.2228</v>
       </c>
       <c r="K59" s="1">
-        <v>710963.1573</v>
+        <v>710970.3708</v>
       </c>
       <c r="L59" s="1">
-        <v>12.7598</v>
+        <v>12.76</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -10758,7 +10761,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>10.4908</v>
@@ -10788,10 +10791,10 @@
         <v>619656.3902</v>
       </c>
       <c r="K60" s="1">
-        <v>745582.3072</v>
+        <v>745589.5207</v>
       </c>
       <c r="L60" s="1">
-        <v>12.5975</v>
+        <v>12.5976</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -10811,7 +10814,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>10.6308</v>
@@ -10841,10 +10844,10 @@
         <v>638017.4949</v>
       </c>
       <c r="K61" s="1">
-        <v>755582.3072</v>
+        <v>755589.5207</v>
       </c>
       <c r="L61" s="1">
-        <v>12.5645</v>
+        <v>12.5646</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -10864,7 +10867,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>10.3176</v>
@@ -10894,10 +10897,10 @@
         <v>628891.4979</v>
       </c>
       <c r="K62" s="1">
-        <v>765582.3072</v>
+        <v>765589.5207</v>
       </c>
       <c r="L62" s="1">
-        <v>12.5351</v>
+        <v>12.5352</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -11002,7 +11005,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-19</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>12.2659</v>
@@ -11049,7 +11052,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-18</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.4103</v>
@@ -11102,7 +11105,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-17</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.3976</v>
@@ -11155,7 +11158,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-16</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.9013</v>
@@ -11208,7 +11211,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-15</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.3527</v>
@@ -11261,7 +11264,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-14</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.8804</v>
@@ -11314,7 +11317,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-13</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>14.6268</v>
@@ -11367,7 +11370,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-12</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>15.3636</v>
@@ -11420,7 +11423,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-11</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.8711</v>
@@ -11473,7 +11476,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>14.1252</v>
@@ -11526,7 +11529,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-9</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.1934</v>
@@ -11579,7 +11582,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-8</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.1176</v>
@@ -11632,7 +11635,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-7</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>15.3311</v>
@@ -11685,7 +11688,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-6</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>15.3637</v>
@@ -11738,7 +11741,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-5</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>14.6447</v>
@@ -11791,7 +11794,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-4</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>15.486</v>
@@ -11844,7 +11847,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-3</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>16.1958</v>
@@ -11897,7 +11900,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-2</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>16.4264</v>
@@ -11950,7 +11953,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>17.107</v>
@@ -12003,7 +12006,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>16.8894</v>
@@ -12056,7 +12059,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>16.4004</v>
@@ -12109,7 +12112,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>15.3877</v>
@@ -12162,7 +12165,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>14.6367</v>
@@ -12215,7 +12218,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.0061</v>
@@ -12268,7 +12271,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.835</v>
@@ -12321,7 +12324,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>14.4216</v>
@@ -12374,7 +12377,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.2404</v>
@@ -12427,7 +12430,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>12.382</v>
@@ -12480,7 +12483,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>11.9583</v>
@@ -12533,7 +12536,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>12.2036</v>
@@ -12586,7 +12589,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>12.9136</v>
@@ -12639,7 +12642,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>13.4338</v>
@@ -12692,7 +12695,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>12.9657</v>
@@ -12745,7 +12748,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>13.3568</v>
@@ -12798,7 +12801,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>13.2487</v>
@@ -12851,7 +12854,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>13.3991</v>
@@ -12904,7 +12907,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>13.5985</v>
@@ -12957,7 +12960,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>13.6955</v>
@@ -13010,7 +13013,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>13.3398</v>
@@ -13063,7 +13066,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>12.8469</v>
@@ -13116,7 +13119,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>13.129</v>
@@ -13169,7 +13172,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>12.716</v>
@@ -13222,7 +13225,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>12.4613</v>
@@ -13275,7 +13278,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>12.6545</v>
@@ -13328,7 +13331,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>12.2345</v>
@@ -13381,7 +13384,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>12.1636</v>
@@ -13434,7 +13437,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>11.8145</v>
@@ -13487,7 +13490,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>11.2352</v>
@@ -13540,7 +13543,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>10.8241</v>
@@ -13593,7 +13596,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>11.2543</v>
@@ -13646,7 +13649,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>10.5675</v>
@@ -13699,7 +13702,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>9.967000000000001</v>
@@ -13752,7 +13755,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>10.0064</v>
@@ -13805,7 +13808,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>10.0129</v>
@@ -13858,7 +13861,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>10.4583</v>
@@ -13911,7 +13914,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>10.3341</v>
@@ -13964,7 +13967,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>9.884600000000001</v>
@@ -14017,7 +14020,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>9.967499999999999</v>
@@ -14070,7 +14073,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>10.4908</v>
@@ -14123,7 +14126,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>10.6308</v>
@@ -14176,7 +14179,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>10.3176</v>
@@ -14314,7 +14317,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-19</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>12.2659</v>
@@ -14361,7 +14364,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-18</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.4103</v>
@@ -14414,7 +14417,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-17</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.3976</v>
@@ -14467,7 +14470,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-16</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.9013</v>
@@ -14520,7 +14523,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-15</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.3527</v>
@@ -14573,7 +14576,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-14</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.8804</v>
@@ -14626,7 +14629,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-13</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>14.6268</v>
@@ -14679,7 +14682,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-12</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>15.3636</v>
@@ -14732,7 +14735,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-11</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.8711</v>
@@ -14785,7 +14788,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>14.1252</v>
@@ -14838,7 +14841,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-9</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.1934</v>
@@ -14891,7 +14894,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-8</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.1176</v>
@@ -14944,7 +14947,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-7</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>15.3311</v>
@@ -14997,7 +15000,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-6</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>15.3637</v>
@@ -15050,7 +15053,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-5</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>14.6447</v>
@@ -15103,7 +15106,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-4</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>15.486</v>
@@ -15156,7 +15159,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-3</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>16.1958</v>
@@ -15209,7 +15212,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-2</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>16.4264</v>
@@ -15262,7 +15265,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>17.107</v>
@@ -15315,7 +15318,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>16.8894</v>
@@ -15368,7 +15371,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>16.4004</v>
@@ -15421,7 +15424,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>15.3877</v>
@@ -15474,7 +15477,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>14.6367</v>
@@ -15527,7 +15530,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.0061</v>
@@ -15580,7 +15583,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.835</v>
@@ -15633,7 +15636,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>14.4216</v>
@@ -15686,7 +15689,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.2404</v>
@@ -15739,7 +15742,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>12.382</v>
@@ -15792,7 +15795,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>11.9583</v>
@@ -15845,7 +15848,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>12.2036</v>
@@ -15898,7 +15901,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>12.9136</v>
@@ -15951,7 +15954,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>13.4338</v>
@@ -16004,7 +16007,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>12.9657</v>
@@ -16057,7 +16060,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>13.3568</v>
@@ -16110,7 +16113,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>13.2487</v>
@@ -16163,7 +16166,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>13.3991</v>
@@ -16216,7 +16219,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>13.5985</v>
@@ -16269,7 +16272,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>13.6955</v>
@@ -16322,7 +16325,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>13.3398</v>
@@ -16375,7 +16378,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>12.8469</v>
@@ -16428,7 +16431,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>13.129</v>
@@ -16481,7 +16484,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>12.716</v>
@@ -16534,7 +16537,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>12.4613</v>
@@ -16587,7 +16590,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>12.6545</v>
@@ -16640,7 +16643,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>12.2345</v>
@@ -16693,7 +16696,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>12.1636</v>
@@ -16746,7 +16749,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>11.8145</v>
@@ -16799,7 +16802,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>11.2352</v>
@@ -16852,7 +16855,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>10.8241</v>
@@ -16905,7 +16908,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>11.2543</v>
@@ -16958,7 +16961,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>10.5675</v>
@@ -17011,7 +17014,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>9.967000000000001</v>
@@ -17064,7 +17067,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>10.0064</v>
@@ -17117,7 +17120,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>10.0129</v>
@@ -17170,7 +17173,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>10.4583</v>
@@ -17223,7 +17226,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>10.3341</v>
@@ -17276,7 +17279,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>9.884600000000001</v>
@@ -17329,7 +17332,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>9.967499999999999</v>
@@ -17382,7 +17385,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>10.4908</v>
@@ -17435,7 +17438,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>10.6308</v>
@@ -17488,7 +17491,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>10.3176</v>
@@ -17546,13 +17549,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
@@ -17597,10 +17600,10 @@
         <v>12.437</v>
       </c>
       <c r="D3" s="1">
-        <v>12.5049</v>
+        <v>12.5082</v>
       </c>
       <c r="E3" s="1">
-        <v>12.5351</v>
+        <v>12.5352</v>
       </c>
       <c r="F3" s="1">
         <v>12.6179</v>
@@ -17716,6 +17719,26 @@
       </c>
       <c r="G8" s="1">
         <v>171042.8654</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.8279</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.8951</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.8214</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.8161</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.8133</v>
       </c>
     </row>
   </sheetData>
